--- a/examples/smbkc_18/doc/Table_for_SS3.xlsx
+++ b/examples/smbkc_18/doc/Table_for_SS3.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim/_mymods/seacode/gmacs/examples/smbkc_18/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6568B315-0A11-4F42-BAF0-C8083361FD1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192DB394-8770-704F-92A9-D548B793FC23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="33600" windowHeight="18440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="3" r:id="rId1"/>
@@ -838,10 +838,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -1332,7 +1332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -3027,6 +3027,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1433067744"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -4194,10 +4195,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="144" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="149" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4208,7 +4209,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669514" cy="6279444"/>
+    <xdr:ext cx="8676913" cy="6281812"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4574,11 +4575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4676,6 +4677,10 @@
         <f>F4/D4</f>
         <v>0.20380768893197876</v>
       </c>
+      <c r="J4">
+        <f>RANK(H4,H4:H44)</f>
+        <v>9</v>
+      </c>
       <c r="K4">
         <v>9381.6943580000006</v>
       </c>
@@ -4702,7 +4707,7 @@
         <v>0.39400000000000002</v>
       </c>
       <c r="W4" s="2">
-        <f t="shared" ref="W4:W44" si="1">U4/$U$47</f>
+        <f t="shared" ref="W4:W43" si="1">U4/$U$47</f>
         <v>1.2062721293231626</v>
       </c>
       <c r="Z4">
@@ -7936,7 +7941,7 @@
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="S52" s="2">
-        <f t="shared" ref="S52:S92" si="5">B52/B$94</f>
+        <f t="shared" ref="S52:S91" si="5">B52/B$94</f>
         <v>2.1242976212773934</v>
       </c>
       <c r="T52" s="2">
@@ -10557,7 +10562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AN401"/>
   <sheetViews>
     <sheetView topLeftCell="A245" zoomScale="215" workbookViewId="0">

--- a/examples/smbkc_18/doc/Table_for_SS3.xlsx
+++ b/examples/smbkc_18/doc/Table_for_SS3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim/_mymods/seacode/gmacs/examples/smbkc_18/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192DB394-8770-704F-92A9-D548B793FC23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34A3528-A48B-8B48-9C8E-0B38E3048A90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="3" r:id="rId1"/>
@@ -1328,13 +1328,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -4578,8 +4579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="S44" sqref="S44"/>
+    <sheetView topLeftCell="A44" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7850,6 +7851,18 @@
       </c>
     </row>
     <row r="46" spans="1:32">
+      <c r="D46">
+        <f>D47</f>
+        <v>16.021894170874624</v>
+      </c>
+      <c r="H46">
+        <f t="array" ref="H46">EXP(AVERAGE(LN(H4:H44)))</f>
+        <v>4596.4848955032448</v>
+      </c>
+      <c r="J46" s="6">
+        <f>H46/D46</f>
+        <v>286.88773290357625</v>
+      </c>
       <c r="U46">
         <f>AVERAGE(U4:U43)</f>
         <v>5762.7509749999999</v>
@@ -7863,6 +7876,10 @@
       <c r="H47">
         <f>AVERAGE(H4:H44)</f>
         <v>5664.4092439024416</v>
+      </c>
+      <c r="J47" s="6">
+        <f>H47/D47</f>
+        <v>353.5417962128023</v>
       </c>
       <c r="U47">
         <f>AVERAGE(U4:U44)</f>
@@ -10565,7 +10582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AN401"/>
   <sheetViews>
-    <sheetView topLeftCell="A245" zoomScale="215" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="215" workbookViewId="0">
       <selection activeCell="C246" sqref="C246"/>
     </sheetView>
   </sheetViews>

--- a/examples/smbkc_18/doc/Table_for_SS3.xlsx
+++ b/examples/smbkc_18/doc/Table_for_SS3.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim/_mymods/seacode/gmacs/examples/smbkc_18/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34A3528-A48B-8B48-9C8E-0B38E3048A90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12ACDBB-3D3A-2A48-A523-C0DCF3F13F78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-3140" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="3" r:id="rId1"/>
     <sheet name="Table_for_SS3" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="272">
   <si>
     <t>Year</t>
   </si>
@@ -833,6 +834,18 @@
   </si>
   <si>
     <t>eof</t>
+  </si>
+  <si>
+    <t>1995  1 5 1 12042.000 0.130 2</t>
+  </si>
+  <si>
+    <t>1998  1 5 1 12531.000 0.060 2</t>
+  </si>
+  <si>
+    <t>2001  1 5 1 8477.000  0.080 2</t>
+  </si>
+  <si>
+    <t>2004  1 5 1 1667.000  0.150 2</t>
   </si>
 </sst>
 </file>
@@ -843,7 +856,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4199,7 +4212,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="149" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="167" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4210,7 +4223,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8676913" cy="6281812"/>
+    <xdr:ext cx="8678333" cy="6292273"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4577,18 +4590,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF94"/>
+  <dimension ref="A1:AN94"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="21" max="21" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4608,7 +4621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1976</v>
       </c>
@@ -4628,7 +4641,7 @@
         <v>4.3984062432336399E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1977</v>
       </c>
@@ -4651,7 +4664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1978</v>
       </c>
@@ -4732,8 +4745,29 @@
       <c r="AF4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AH4">
+        <v>1978</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>4</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>8060.9225729999998</v>
+      </c>
+      <c r="AM4">
+        <v>0.20380768899999999</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1979</v>
       </c>
@@ -4810,8 +4844,29 @@
       <c r="AF5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AH5">
+        <v>1979</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>4</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>11570.74365</v>
+      </c>
+      <c r="AM5">
+        <v>0.25533613199999999</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1980</v>
       </c>
@@ -4888,8 +4943,29 @@
       <c r="AF6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AH6">
+        <v>1980</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>4</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>10319.16675</v>
+      </c>
+      <c r="AM6">
+        <v>0.17221713399999999</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1981</v>
       </c>
@@ -4966,8 +5042,29 @@
       <c r="AF7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AH7">
+        <v>1981</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>4</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>8507.1040790000006</v>
+      </c>
+      <c r="AM7">
+        <v>0.168201659</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1982</v>
       </c>
@@ -5044,8 +5141,29 @@
       <c r="AF8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="AH8">
+        <v>1982</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>4</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>20413.241900000001</v>
+      </c>
+      <c r="AM8">
+        <v>0.185660992</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1983</v>
       </c>
@@ -5122,8 +5240,29 @@
       <c r="AF9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="AH9">
+        <v>1983</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>4</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>9417.227981</v>
+      </c>
+      <c r="AM9">
+        <v>0.145334879</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1984</v>
       </c>
@@ -5200,8 +5339,29 @@
       <c r="AF10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AH10">
+        <v>1984</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>4</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>4709.8441480000001</v>
+      </c>
+      <c r="AM10">
+        <v>0.15403524299999999</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1985</v>
       </c>
@@ -5278,8 +5438,29 @@
       <c r="AF11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AH11">
+        <v>1985</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>4</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>3921.8149589999998</v>
+      </c>
+      <c r="AM11">
+        <v>0.17317059400000001</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1986</v>
       </c>
@@ -5356,8 +5537,29 @@
       <c r="AF12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AH12">
+        <v>1986</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>4</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1401.249564</v>
+      </c>
+      <c r="AM12">
+        <v>0.23191055499999999</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1987</v>
       </c>
@@ -5434,8 +5636,29 @@
       <c r="AF13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AH13">
+        <v>1987</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+      <c r="AJ13">
+        <v>4</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>2825.3579340000001</v>
+      </c>
+      <c r="AM13">
+        <v>0.20271402599999999</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1988</v>
       </c>
@@ -5512,8 +5735,29 @@
       <c r="AF14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AH14">
+        <v>1988</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AJ14">
+        <v>4</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>3057.1329649999998</v>
+      </c>
+      <c r="AM14">
+        <v>0.19780009300000001</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1989</v>
       </c>
@@ -5590,8 +5834,29 @@
       <c r="AF15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AH15">
+        <v>1989</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <v>4</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>6526.3742629999997</v>
+      </c>
+      <c r="AM15">
+        <v>0.179570758</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1990</v>
       </c>
@@ -5668,8 +5933,29 @@
       <c r="AF16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AH16">
+        <v>1990</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>4</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>6718.6202229999999</v>
+      </c>
+      <c r="AM16">
+        <v>0.177954581</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1991</v>
       </c>
@@ -5746,8 +6032,29 @@
       <c r="AF17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AH17">
+        <v>1991</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AJ17">
+        <v>4</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>7271.4305750000003</v>
+      </c>
+      <c r="AM17">
+        <v>0.150628227</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1992</v>
       </c>
@@ -5824,8 +6131,29 @@
       <c r="AF18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AH18">
+        <v>1992</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
+        <v>4</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>7648.9727409999996</v>
+      </c>
+      <c r="AM18">
+        <v>0.144328968</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1993</v>
       </c>
@@ -5902,8 +6230,29 @@
       <c r="AF19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AH19">
+        <v>1993</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
+      </c>
+      <c r="AJ19">
+        <v>4</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>10196.984769999999</v>
+      </c>
+      <c r="AM19">
+        <v>0.14505253900000001</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1994</v>
       </c>
@@ -5980,8 +6329,29 @@
       <c r="AF20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AH20">
+        <v>1994</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
+      </c>
+      <c r="AJ20">
+        <v>4</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>6916.2982920000004</v>
+      </c>
+      <c r="AM20">
+        <v>0.151367684</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1995</v>
       </c>
@@ -6058,8 +6428,29 @@
       <c r="AF21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AH21">
+        <v>1995</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+      <c r="AJ21">
+        <v>4</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>6055.2046440000004</v>
+      </c>
+      <c r="AM21">
+        <v>0.13205469</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1996</v>
       </c>
@@ -6136,8 +6527,29 @@
       <c r="AF22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AH22">
+        <v>1996</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AJ22">
+        <v>4</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>9166.9708019999998</v>
+      </c>
+      <c r="AM22">
+        <v>0.14980418500000001</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1997</v>
       </c>
@@ -6214,8 +6626,29 @@
       <c r="AF23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AH23">
+        <v>1997</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AJ23">
+        <v>4</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>9113.1582240000007</v>
+      </c>
+      <c r="AM23">
+        <v>0.148604925</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1998</v>
       </c>
@@ -6292,8 +6725,29 @@
       <c r="AF24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AH24">
+        <v>1998</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AJ24">
+        <v>4</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>6753.135405</v>
+      </c>
+      <c r="AM24">
+        <v>0.14699490300000001</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1999</v>
       </c>
@@ -6370,8 +6824,29 @@
       <c r="AF25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AH25">
+        <v>1999</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
+      </c>
+      <c r="AJ25">
+        <v>4</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>2207.1303750000002</v>
+      </c>
+      <c r="AM25">
+        <v>0.18052784899999999</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2000</v>
       </c>
@@ -6449,8 +6924,29 @@
       <c r="AF26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AH26">
+        <v>2000</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
+      </c>
+      <c r="AJ26">
+        <v>4</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>2184.0903370000001</v>
+      </c>
+      <c r="AM26">
+        <v>0.197423456</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2001</v>
       </c>
@@ -6528,8 +7024,29 @@
       <c r="AF27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="AH27">
+        <v>2001</v>
+      </c>
+      <c r="AI27">
+        <v>1</v>
+      </c>
+      <c r="AJ27">
+        <v>4</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>3227.111907</v>
+      </c>
+      <c r="AM27">
+        <v>0.23294406400000001</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2002</v>
       </c>
@@ -6607,8 +7124,29 @@
       <c r="AF28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="AH28">
+        <v>2002</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
+      </c>
+      <c r="AJ28">
+        <v>4</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1725.8204940000001</v>
+      </c>
+      <c r="AM28">
+        <v>0.23891733200000001</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2003</v>
       </c>
@@ -6686,8 +7224,29 @@
       <c r="AF29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AH29">
+        <v>2003</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
+      </c>
+      <c r="AJ29">
+        <v>4</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1674.0011119999999</v>
+      </c>
+      <c r="AM29">
+        <v>0.221987196</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2004</v>
       </c>
@@ -6765,8 +7324,29 @@
       <c r="AF30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:32">
+      <c r="AH30">
+        <v>2004</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
+      </c>
+      <c r="AJ30">
+        <v>4</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1769.1323130000001</v>
+      </c>
+      <c r="AM30">
+        <v>0.21916393000000001</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2005</v>
       </c>
@@ -6844,8 +7424,29 @@
       <c r="AF31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AH31">
+        <v>2005</v>
+      </c>
+      <c r="AI31">
+        <v>1</v>
+      </c>
+      <c r="AJ31">
+        <v>4</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1731.5428179999999</v>
+      </c>
+      <c r="AM31">
+        <v>0.27290378799999998</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2006</v>
       </c>
@@ -6923,8 +7524,29 @@
       <c r="AF32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:32">
+      <c r="AH32">
+        <v>2006</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
+      </c>
+      <c r="AJ32">
+        <v>4</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>3770.885655</v>
+      </c>
+      <c r="AM32">
+        <v>0.16949783199999999</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2007</v>
       </c>
@@ -7002,8 +7624,29 @@
       <c r="AF33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:32">
+      <c r="AH33">
+        <v>2007</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
+      </c>
+      <c r="AJ33">
+        <v>4</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>5473.6660439999996</v>
+      </c>
+      <c r="AM33">
+        <v>0.149168984</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2008</v>
       </c>
@@ -7081,8 +7724,29 @@
       <c r="AF34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:32">
+      <c r="AH34">
+        <v>2008</v>
+      </c>
+      <c r="AI34">
+        <v>1</v>
+      </c>
+      <c r="AJ34">
+        <v>4</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>4478.5032810000002</v>
+      </c>
+      <c r="AM34">
+        <v>0.16499961199999999</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2009</v>
       </c>
@@ -7160,8 +7824,29 @@
       <c r="AF35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:32">
+      <c r="AH35">
+        <v>2009</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
+      </c>
+      <c r="AJ35">
+        <v>4</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>6266.6957640000001</v>
+      </c>
+      <c r="AM35">
+        <v>0.13249823999999999</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2010</v>
       </c>
@@ -7239,8 +7924,29 @@
       <c r="AF36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:32">
+      <c r="AH36">
+        <v>2010</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
+      </c>
+      <c r="AJ36">
+        <v>4</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>7714.5547299999998</v>
+      </c>
+      <c r="AM36">
+        <v>0.13185007500000001</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2011</v>
       </c>
@@ -7318,8 +8024,29 @@
       <c r="AF37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:32">
+      <c r="AH37">
+        <v>2011</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
+      </c>
+      <c r="AJ37">
+        <v>4</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>7331.6917320000002</v>
+      </c>
+      <c r="AM37">
+        <v>0.15436322099999999</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2012</v>
       </c>
@@ -7397,8 +8124,29 @@
       <c r="AF38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:32">
+      <c r="AH38">
+        <v>2012</v>
+      </c>
+      <c r="AI38">
+        <v>1</v>
+      </c>
+      <c r="AJ38">
+        <v>4</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>5817.2302959999997</v>
+      </c>
+      <c r="AM38">
+        <v>0.134574956</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2013</v>
       </c>
@@ -7476,8 +8224,29 @@
       <c r="AF39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:32">
+      <c r="AH39">
+        <v>2013</v>
+      </c>
+      <c r="AI39">
+        <v>1</v>
+      </c>
+      <c r="AJ39">
+        <v>4</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39">
+        <v>2638.383468</v>
+      </c>
+      <c r="AM39">
+        <v>0.155154123</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2014</v>
       </c>
@@ -7555,8 +8324,29 @@
       <c r="AF40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:32">
+      <c r="AH40">
+        <v>2014</v>
+      </c>
+      <c r="AI40">
+        <v>1</v>
+      </c>
+      <c r="AJ40">
+        <v>4</v>
+      </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>4646.5742630000004</v>
+      </c>
+      <c r="AM40">
+        <v>0.17530146999999999</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2015</v>
       </c>
@@ -7634,8 +8424,29 @@
       <c r="AF41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:32">
+      <c r="AH41">
+        <v>2015</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
+      </c>
+      <c r="AJ41">
+        <v>4</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>2655.082159</v>
+      </c>
+      <c r="AM41">
+        <v>0.19181546799999999</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2016</v>
       </c>
@@ -7721,8 +8532,29 @@
       <c r="AF42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:32">
+      <c r="AH42">
+        <v>2016</v>
+      </c>
+      <c r="AI42">
+        <v>1</v>
+      </c>
+      <c r="AJ42">
+        <v>4</v>
+      </c>
+      <c r="AK42">
+        <v>1</v>
+      </c>
+      <c r="AL42">
+        <v>2836.764678</v>
+      </c>
+      <c r="AM42">
+        <v>0.20851403800000001</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2017</v>
       </c>
@@ -7800,8 +8632,29 @@
       <c r="AF43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:32">
+      <c r="AH43">
+        <v>2017</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
+      </c>
+      <c r="AJ43">
+        <v>4</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>1294.031068</v>
+      </c>
+      <c r="AM43">
+        <v>0.25915078699999999</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2018</v>
       </c>
@@ -7849,8 +8702,34 @@
       <c r="Z44">
         <v>2018</v>
       </c>
-    </row>
-    <row r="46" spans="1:32">
+      <c r="AH44">
+        <v>2018</v>
+      </c>
+      <c r="AI44">
+        <v>1</v>
+      </c>
+      <c r="AJ44">
+        <v>4</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>2226.9300539999999</v>
+      </c>
+      <c r="AM44">
+        <v>0.26350969800000001</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AH45" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D46">
         <f>D47</f>
         <v>16.021894170874624</v>
@@ -7867,8 +8746,11 @@
         <f>AVERAGE(U4:U43)</f>
         <v>5762.7509749999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:32">
+      <c r="AH46" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D47">
         <f>AVERAGE(D4:D44)</f>
         <v>16.021894170874624</v>
@@ -7885,8 +8767,21 @@
         <f>AVERAGE(U4:U44)</f>
         <v>5664.4092439024389</v>
       </c>
-    </row>
-    <row r="51" spans="1:26">
+      <c r="AH47" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AH48" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>0</v>
       </c>
@@ -7922,7 +8817,7 @@
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>1978</v>
       </c>
@@ -7986,7 +8881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>1979</v>
       </c>
@@ -8050,7 +8945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>1980</v>
       </c>
@@ -8114,7 +9009,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>1981</v>
       </c>
@@ -8178,7 +9073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>1982</v>
       </c>
@@ -8242,7 +9137,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>1983</v>
       </c>
@@ -8306,7 +9201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>1984</v>
       </c>
@@ -8370,7 +9265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>1985</v>
       </c>
@@ -8434,7 +9329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>1986</v>
       </c>
@@ -8498,7 +9393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>1987</v>
       </c>
@@ -8562,7 +9457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>1988</v>
       </c>
@@ -8626,7 +9521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>1989</v>
       </c>
@@ -8690,7 +9585,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>1990</v>
       </c>
@@ -8754,7 +9649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>1991</v>
       </c>
@@ -8818,7 +9713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>1992</v>
       </c>
@@ -8882,7 +9777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>1993</v>
       </c>
@@ -8946,7 +9841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>1994</v>
       </c>
@@ -9010,7 +9905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>1995</v>
       </c>
@@ -9074,7 +9969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>1996</v>
       </c>
@@ -9138,7 +10033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>1997</v>
       </c>
@@ -9202,7 +10097,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>1998</v>
       </c>
@@ -9266,7 +10161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>1998</v>
       </c>
@@ -9330,7 +10225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>2000</v>
       </c>
@@ -9394,7 +10289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>2001</v>
       </c>
@@ -9458,7 +10353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>2002</v>
       </c>
@@ -9522,7 +10417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>2003</v>
       </c>
@@ -9586,7 +10481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>2004</v>
       </c>
@@ -9650,7 +10545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>2005</v>
       </c>
@@ -9714,7 +10609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>2006</v>
       </c>
@@ -9778,7 +10673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>2007</v>
       </c>
@@ -9842,7 +10737,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>2008</v>
       </c>
@@ -9906,7 +10801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>2009</v>
       </c>
@@ -9970,7 +10865,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>2010</v>
       </c>
@@ -10034,7 +10929,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>2011</v>
       </c>
@@ -10098,7 +10993,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>2012</v>
       </c>
@@ -10162,7 +11057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>2013</v>
       </c>
@@ -10226,7 +11121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>2014</v>
       </c>
@@ -10290,7 +11185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>2015</v>
       </c>
@@ -10354,7 +11249,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>2016</v>
       </c>
@@ -10418,7 +11313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>2017</v>
       </c>
@@ -10482,7 +11377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>2018</v>
       </c>
@@ -10550,7 +11445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B94">
         <f>AVERAGE(B52:B92)</f>
         <v>1.0417560975609754</v>
@@ -10582,18 +11477,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AN401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="215" workbookViewId="0">
-      <selection activeCell="C246" sqref="C246"/>
+    <sheetView topLeftCell="A226" zoomScale="215" workbookViewId="0">
+      <selection activeCell="C246" sqref="C244:C246"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -10625,7 +11520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -10636,7 +11531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -10659,7 +11554,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -10685,7 +11580,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -10702,7 +11597,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -10719,7 +11614,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -10736,7 +11631,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -10753,7 +11648,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -10797,7 +11692,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -10826,12 +11721,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1978</v>
       </c>
@@ -10845,7 +11740,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2017</v>
       </c>
@@ -10859,7 +11754,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -10873,7 +11768,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -10890,7 +11785,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -10928,7 +11823,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -10945,7 +11840,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -10968,7 +11863,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -10988,7 +11883,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -11014,7 +11909,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -11031,7 +11926,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
@@ -11054,7 +11949,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -11074,7 +11969,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -11094,7 +11989,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -11138,7 +12033,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>90</v>
       </c>
@@ -11152,7 +12047,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -11217,12 +12112,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -11242,12 +12137,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>4.03E-7</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -11261,12 +12156,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3.1413340000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -11277,7 +12172,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11288,7 +12183,7 @@
         <v>1.9305100000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11299,7 +12194,7 @@
         <v>1.6888859999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11310,7 +12205,7 @@
         <v>1.9222460000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11321,7 +12216,7 @@
         <v>1.877957E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11332,7 +12227,7 @@
         <v>1.9386340000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11343,7 +12238,7 @@
         <v>2.076413E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11354,7 +12249,7 @@
         <v>1.8993300000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11365,7 +12260,7 @@
         <v>2.1166869999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11376,7 +12271,7 @@
         <v>1.938784E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11387,7 +12282,7 @@
         <v>1.9397640000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11398,7 +12293,7 @@
         <v>1.8710669999999999E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11409,7 +12304,7 @@
         <v>1.9982950000000002E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11420,7 +12315,7 @@
         <v>1.870418E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11431,7 +12326,7 @@
         <v>1.969415E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11442,7 +12337,7 @@
         <v>1.926859E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11453,7 +12348,7 @@
         <v>2.0214920000000002E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11464,7 +12359,7 @@
         <v>1.931318E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11475,7 +12370,7 @@
         <v>2.0144070000000002E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11486,7 +12381,7 @@
         <v>1.9774710000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11497,7 +12392,7 @@
         <v>2.0992459999999999E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11508,7 +12403,7 @@
         <v>1.9824780000000002E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11519,7 +12414,7 @@
         <v>1.930932E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11530,7 +12425,7 @@
         <v>1.930932E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11541,7 +12436,7 @@
         <v>1.930932E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11552,7 +12447,7 @@
         <v>1.930932E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11563,7 +12458,7 @@
         <v>1.930932E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11574,7 +12469,7 @@
         <v>1.930932E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11585,7 +12480,7 @@
         <v>1.930932E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11596,7 +12491,7 @@
         <v>1.930932E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11607,7 +12502,7 @@
         <v>1.930932E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11618,7 +12513,7 @@
         <v>1.930932E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11629,7 +12524,7 @@
         <v>1.891628E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11640,7 +12535,7 @@
         <v>1.7957209999999999E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11651,7 +12546,7 @@
         <v>1.8231129999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11662,7 +12557,7 @@
         <v>1.807433E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11673,7 +12568,7 @@
         <v>1.930932E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11684,7 +12579,7 @@
         <v>1.8946270000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11695,7 +12590,7 @@
         <v>1.8506110000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11706,7 +12601,7 @@
         <v>1.930932E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>7.4842699999999997E-4</v>
       </c>
@@ -11717,7 +12612,7 @@
         <v>1.930932E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -11743,7 +12638,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0</v>
       </c>
@@ -11754,7 +12649,7 @@
         <v>1.945911E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -11771,7 +12666,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0</v>
       </c>
@@ -11782,7 +12677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -11835,12 +12730,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -11896,7 +12791,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>135</v>
       </c>
@@ -11913,7 +12808,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>0</v>
       </c>
@@ -11930,7 +12825,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>0</v>
       </c>
@@ -11947,7 +12842,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>0</v>
       </c>
@@ -11964,7 +12859,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>0</v>
       </c>
@@ -11981,7 +12876,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>0</v>
       </c>
@@ -11998,7 +12893,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>0</v>
       </c>
@@ -12015,7 +12910,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>0</v>
       </c>
@@ -12032,7 +12927,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>0</v>
       </c>
@@ -12049,7 +12944,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>0</v>
       </c>
@@ -12066,7 +12961,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>0</v>
       </c>
@@ -12083,7 +12978,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>0</v>
       </c>
@@ -12100,7 +12995,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>0</v>
       </c>
@@ -12117,7 +13012,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>0</v>
       </c>
@@ -12134,7 +13029,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="97" spans="2:6">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>0</v>
       </c>
@@ -12151,7 +13046,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="98" spans="2:6">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>0</v>
       </c>
@@ -12168,7 +13063,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="99" spans="2:6">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>0</v>
       </c>
@@ -12185,7 +13080,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="100" spans="2:6">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>0</v>
       </c>
@@ -12202,7 +13097,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="101" spans="2:6">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>0</v>
       </c>
@@ -12219,7 +13114,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="102" spans="2:6">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>0</v>
       </c>
@@ -12236,7 +13131,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="103" spans="2:6">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103">
         <v>0</v>
       </c>
@@ -12253,7 +13148,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="104" spans="2:6">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B104">
         <v>0</v>
       </c>
@@ -12270,7 +13165,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="105" spans="2:6">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B105">
         <v>0</v>
       </c>
@@ -12287,7 +13182,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="106" spans="2:6">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B106">
         <v>0</v>
       </c>
@@ -12304,7 +13199,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="107" spans="2:6">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107">
         <v>0</v>
       </c>
@@ -12321,7 +13216,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="108" spans="2:6">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B108">
         <v>0</v>
       </c>
@@ -12338,7 +13233,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="109" spans="2:6">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B109">
         <v>0</v>
       </c>
@@ -12355,7 +13250,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="110" spans="2:6">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B110">
         <v>0</v>
       </c>
@@ -12372,7 +13267,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="111" spans="2:6">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B111">
         <v>0</v>
       </c>
@@ -12389,7 +13284,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="112" spans="2:6">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B112">
         <v>0</v>
       </c>
@@ -12406,7 +13301,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B113">
         <v>0</v>
       </c>
@@ -12423,7 +13318,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B114">
         <v>0</v>
       </c>
@@ -12440,7 +13335,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B115">
         <v>0</v>
       </c>
@@ -12457,7 +13352,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B116">
         <v>0</v>
       </c>
@@ -12474,7 +13369,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B117">
         <v>0</v>
       </c>
@@ -12491,7 +13386,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B118">
         <v>0</v>
       </c>
@@ -12508,7 +13403,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B119">
         <v>0</v>
       </c>
@@ -12525,7 +13420,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B120">
         <v>0</v>
       </c>
@@ -12542,7 +13437,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B121">
         <v>0</v>
       </c>
@@ -12559,7 +13454,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B122">
         <v>0</v>
       </c>
@@ -12576,7 +13471,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B123">
         <v>0</v>
       </c>
@@ -12593,7 +13488,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -12628,12 +13523,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -12665,12 +13560,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>15</v>
       </c>
@@ -12690,12 +13585,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>15</v>
       </c>
@@ -12721,7 +13616,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>28</v>
       </c>
@@ -12735,7 +13630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>149</v>
       </c>
@@ -12746,7 +13641,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>149</v>
       </c>
@@ -12778,7 +13673,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>149</v>
       </c>
@@ -12810,7 +13705,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -12860,7 +13755,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -12871,7 +13766,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>15</v>
       </c>
@@ -12909,7 +13804,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1978</v>
       </c>
@@ -12944,7 +13839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1979</v>
       </c>
@@ -12979,7 +13874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1980</v>
       </c>
@@ -13014,7 +13909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1981</v>
       </c>
@@ -13049,7 +13944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1982</v>
       </c>
@@ -13084,7 +13979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1983</v>
       </c>
@@ -13119,7 +14014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1984</v>
       </c>
@@ -13154,7 +14049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1985</v>
       </c>
@@ -13189,7 +14084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1986</v>
       </c>
@@ -13224,7 +14119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1987</v>
       </c>
@@ -13259,7 +14154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1988</v>
       </c>
@@ -13294,7 +14189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1989</v>
       </c>
@@ -13329,7 +14224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1990</v>
       </c>
@@ -13364,7 +14259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1991</v>
       </c>
@@ -13399,7 +14294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1992</v>
       </c>
@@ -13434,7 +14329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1993</v>
       </c>
@@ -13469,7 +14364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1994</v>
       </c>
@@ -13504,7 +14399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1995</v>
       </c>
@@ -13539,7 +14434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1996</v>
       </c>
@@ -13574,7 +14469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1997</v>
       </c>
@@ -13609,7 +14504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1998</v>
       </c>
@@ -13644,7 +14539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2009</v>
       </c>
@@ -13679,7 +14574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2010</v>
       </c>
@@ -13714,7 +14609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2011</v>
       </c>
@@ -13749,7 +14644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2012</v>
       </c>
@@ -13784,7 +14679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2014</v>
       </c>
@@ -13819,7 +14714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2015</v>
       </c>
@@ -13854,7 +14749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2016</v>
       </c>
@@ -13889,7 +14784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>15</v>
       </c>
@@ -13906,7 +14801,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1990</v>
       </c>
@@ -13941,7 +14836,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1991</v>
       </c>
@@ -13976,7 +14871,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1992</v>
       </c>
@@ -14011,7 +14906,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1993</v>
       </c>
@@ -14046,7 +14941,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1994</v>
       </c>
@@ -14081,7 +14976,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1995</v>
       </c>
@@ -14116,7 +15011,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1996</v>
       </c>
@@ -14151,7 +15046,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1997</v>
       </c>
@@ -14186,7 +15081,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1998</v>
       </c>
@@ -14221,7 +15116,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2009</v>
       </c>
@@ -14256,7 +15151,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2010</v>
       </c>
@@ -14291,7 +15186,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2011</v>
       </c>
@@ -14326,7 +15221,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2012</v>
       </c>
@@ -14361,7 +15256,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2014</v>
       </c>
@@ -14396,7 +15291,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2015</v>
       </c>
@@ -14431,7 +15326,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2016</v>
       </c>
@@ -14466,7 +15361,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>15</v>
       </c>
@@ -14480,7 +15375,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1991</v>
       </c>
@@ -14515,7 +15410,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1992</v>
       </c>
@@ -14550,7 +15445,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1993</v>
       </c>
@@ -14585,7 +15480,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1994</v>
       </c>
@@ -14620,7 +15515,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1995</v>
       </c>
@@ -14655,7 +15550,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1996</v>
       </c>
@@ -14690,7 +15585,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1997</v>
       </c>
@@ -14725,7 +15620,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1998</v>
       </c>
@@ -14760,7 +15655,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1999</v>
       </c>
@@ -14795,7 +15690,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2000</v>
       </c>
@@ -14830,7 +15725,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2001</v>
       </c>
@@ -14865,7 +15760,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2002</v>
       </c>
@@ -14900,7 +15795,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2003</v>
       </c>
@@ -14935,7 +15830,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2004</v>
       </c>
@@ -14970,7 +15865,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2005</v>
       </c>
@@ -15005,7 +15900,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2006</v>
       </c>
@@ -15040,7 +15935,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2007</v>
       </c>
@@ -15075,7 +15970,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2008</v>
       </c>
@@ -15110,7 +16005,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2009</v>
       </c>
@@ -15145,7 +16040,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2010</v>
       </c>
@@ -15180,7 +16075,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2011</v>
       </c>
@@ -15215,7 +16110,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2012</v>
       </c>
@@ -15250,7 +16145,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2013</v>
       </c>
@@ -15285,7 +16180,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2014</v>
       </c>
@@ -15320,7 +16215,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2015</v>
       </c>
@@ -15355,7 +16250,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2016</v>
       </c>
@@ -15390,7 +16285,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>15</v>
       </c>
@@ -15404,7 +16299,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1991</v>
       </c>
@@ -15439,7 +16334,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1992</v>
       </c>
@@ -15474,7 +16369,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1993</v>
       </c>
@@ -15509,7 +16404,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1994</v>
       </c>
@@ -15544,7 +16439,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1995</v>
       </c>
@@ -15579,7 +16474,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1996</v>
       </c>
@@ -15614,7 +16509,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1997</v>
       </c>
@@ -15649,7 +16544,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1998</v>
       </c>
@@ -15684,7 +16579,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>1999</v>
       </c>
@@ -15719,7 +16614,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2000</v>
       </c>
@@ -15754,7 +16649,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2001</v>
       </c>
@@ -15789,7 +16684,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2002</v>
       </c>
@@ -15824,7 +16719,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2003</v>
       </c>
@@ -15859,7 +16754,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2004</v>
       </c>
@@ -15894,7 +16789,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2005</v>
       </c>
@@ -15929,7 +16824,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2006</v>
       </c>
@@ -15964,7 +16859,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2007</v>
       </c>
@@ -15999,7 +16894,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2008</v>
       </c>
@@ -16034,7 +16929,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2009</v>
       </c>
@@ -16069,7 +16964,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2010</v>
       </c>
@@ -16104,7 +16999,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2011</v>
       </c>
@@ -16139,7 +17034,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2012</v>
       </c>
@@ -16174,7 +17069,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2013</v>
       </c>
@@ -16209,7 +17104,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2014</v>
       </c>
@@ -16244,7 +17139,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2015</v>
       </c>
@@ -16279,7 +17174,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2016</v>
       </c>
@@ -16314,7 +17209,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>149</v>
       </c>
@@ -16328,7 +17223,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>149</v>
       </c>
@@ -16360,7 +17255,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>149</v>
       </c>
@@ -16389,7 +17284,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>149</v>
       </c>
@@ -16409,12 +17304,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>149</v>
       </c>
@@ -16437,7 +17332,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>40</v>
       </c>
@@ -16445,7 +17340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>15</v>
       </c>
@@ -16495,7 +17390,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>15</v>
       </c>
@@ -16521,7 +17416,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>1978</v>
       </c>
@@ -16544,7 +17439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>1979</v>
       </c>
@@ -16567,7 +17462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:16">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1980</v>
       </c>
@@ -16590,7 +17485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:16">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1981</v>
       </c>
@@ -16613,7 +17508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>1982</v>
       </c>
@@ -16636,7 +17531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>1983</v>
       </c>
@@ -16659,7 +17554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>1984</v>
       </c>
@@ -16682,7 +17577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>1985</v>
       </c>
@@ -16705,7 +17600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:16">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>1986</v>
       </c>
@@ -16728,7 +17623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>1987</v>
       </c>
@@ -16751,7 +17646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>1988</v>
       </c>
@@ -16774,7 +17669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>1989</v>
       </c>
@@ -16797,7 +17692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>1990</v>
       </c>
@@ -16820,7 +17715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>1991</v>
       </c>
@@ -16843,7 +17738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>1992</v>
       </c>
@@ -16866,7 +17761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>1993</v>
       </c>
@@ -16889,7 +17784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>1994</v>
       </c>
@@ -16912,7 +17807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1995</v>
       </c>
@@ -16935,7 +17830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1996</v>
       </c>
@@ -16958,7 +17853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>1997</v>
       </c>
@@ -16981,7 +17876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1998</v>
       </c>
@@ -17004,7 +17899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1999</v>
       </c>
@@ -17027,7 +17922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2000</v>
       </c>
@@ -17050,7 +17945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2001</v>
       </c>
@@ -17073,7 +17968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2002</v>
       </c>
@@ -17096,7 +17991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2003</v>
       </c>
@@ -17119,7 +18014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2004</v>
       </c>
@@ -17142,7 +18037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2005</v>
       </c>
@@ -17165,7 +18060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>2006</v>
       </c>
@@ -17188,7 +18083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2007</v>
       </c>
@@ -17211,7 +18106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2008</v>
       </c>
@@ -17234,7 +18129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2009</v>
       </c>
@@ -17257,7 +18152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2010</v>
       </c>
@@ -17280,7 +18175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2011</v>
       </c>
@@ -17303,7 +18198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2012</v>
       </c>
@@ -17326,7 +18221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2013</v>
       </c>
@@ -17349,7 +18244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2014</v>
       </c>
@@ -17372,7 +18267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2015</v>
       </c>
@@ -17395,7 +18290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2016</v>
       </c>
@@ -17418,7 +18313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2017</v>
       </c>
@@ -17441,7 +18336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2018</v>
       </c>
@@ -17464,7 +18359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>1995</v>
       </c>
@@ -17487,7 +18382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>1998</v>
       </c>
@@ -17510,7 +18405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2001</v>
       </c>
@@ -17533,7 +18428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>2004</v>
       </c>
@@ -17556,7 +18451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2007</v>
       </c>
@@ -17579,7 +18474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2010</v>
       </c>
@@ -17602,7 +18497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2013</v>
       </c>
@@ -17625,7 +18520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2015</v>
       </c>
@@ -17648,7 +18543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2016</v>
       </c>
@@ -17671,7 +18566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2017</v>
       </c>
@@ -17694,7 +18589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>149</v>
       </c>
@@ -17714,12 +18609,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>149</v>
       </c>
@@ -17742,7 +18637,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>15</v>
       </c>
@@ -17753,7 +18648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>149</v>
       </c>
@@ -17788,7 +18683,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>3</v>
       </c>
@@ -17799,7 +18694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>149</v>
       </c>
@@ -17822,7 +18717,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>149</v>
       </c>
@@ -17836,7 +18731,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="305" spans="1:17">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>149</v>
       </c>
@@ -17877,7 +18772,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="306" spans="1:17">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>149</v>
       </c>
@@ -17921,7 +18816,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="307" spans="1:17">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>149</v>
       </c>
@@ -17965,7 +18860,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="308" spans="1:17">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>149</v>
       </c>
@@ -18018,7 +18913,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="309" spans="1:17">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>228</v>
       </c>
@@ -18038,7 +18933,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="310" spans="1:17">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>231</v>
       </c>
@@ -18067,7 +18962,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="311" spans="1:17">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B311">
         <v>1990</v>
       </c>
@@ -18102,7 +18997,7 @@
         <v>0.49330000000000002</v>
       </c>
     </row>
-    <row r="312" spans="1:17">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B312">
         <v>1991</v>
       </c>
@@ -18137,7 +19032,7 @@
         <v>0.69020000000000004</v>
       </c>
     </row>
-    <row r="313" spans="1:17">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B313">
         <v>1992</v>
       </c>
@@ -18172,7 +19067,7 @@
         <v>0.54169999999999996</v>
       </c>
     </row>
-    <row r="314" spans="1:17">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B314">
         <v>1993</v>
       </c>
@@ -18207,7 +19102,7 @@
         <v>0.50960000000000005</v>
       </c>
     </row>
-    <row r="315" spans="1:17">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B315">
         <v>1994</v>
       </c>
@@ -18242,7 +19137,7 @@
         <v>0.43440000000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:17">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B316">
         <v>1995</v>
       </c>
@@ -18277,7 +19172,7 @@
         <v>0.63949999999999996</v>
       </c>
     </row>
-    <row r="317" spans="1:17">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B317">
         <v>1996</v>
       </c>
@@ -18312,7 +19207,7 @@
         <v>0.61760000000000004</v>
       </c>
     </row>
-    <row r="318" spans="1:17">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B318">
         <v>1997</v>
       </c>
@@ -18347,7 +19242,7 @@
         <v>0.61280000000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:17">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B319">
         <v>1998</v>
       </c>
@@ -18382,7 +19277,7 @@
         <v>0.59109999999999996</v>
       </c>
     </row>
-    <row r="320" spans="1:17">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B320">
         <v>2009</v>
       </c>
@@ -18417,7 +19312,7 @@
         <v>0.53520000000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:12">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B321">
         <v>2010</v>
       </c>
@@ -18452,7 +19347,7 @@
         <v>0.5534</v>
       </c>
     </row>
-    <row r="322" spans="1:12">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B322">
         <v>2011</v>
       </c>
@@ -18487,7 +19382,7 @@
         <v>0.56359999999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:12">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B323">
         <v>2012</v>
       </c>
@@ -18522,7 +19417,7 @@
         <v>0.54059999999999997</v>
       </c>
     </row>
-    <row r="324" spans="1:12">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B324">
         <v>2014</v>
       </c>
@@ -18557,7 +19452,7 @@
         <v>0.67859999999999998</v>
       </c>
     </row>
-    <row r="325" spans="1:12">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B325">
         <v>2015</v>
       </c>
@@ -18592,7 +19487,7 @@
         <v>0.63329999999999997</v>
       </c>
     </row>
-    <row r="326" spans="1:12">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>228</v>
       </c>
@@ -18612,7 +19507,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="327" spans="1:12">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>231</v>
       </c>
@@ -18641,7 +19536,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="328" spans="1:12">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B328">
         <v>1978</v>
       </c>
@@ -18676,7 +19571,7 @@
         <v>0.26569999999999999</v>
       </c>
     </row>
-    <row r="329" spans="1:12">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B329">
         <v>1979</v>
       </c>
@@ -18711,7 +19606,7 @@
         <v>0.25290000000000001</v>
       </c>
     </row>
-    <row r="330" spans="1:12">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B330">
         <v>1980</v>
       </c>
@@ -18746,7 +19641,7 @@
         <v>0.31919999999999998</v>
       </c>
     </row>
-    <row r="331" spans="1:12">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B331">
         <v>1981</v>
       </c>
@@ -18781,7 +19676,7 @@
         <v>0.5716</v>
       </c>
     </row>
-    <row r="332" spans="1:12">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B332">
         <v>1982</v>
       </c>
@@ -18816,7 +19711,7 @@
         <v>0.58930000000000005</v>
       </c>
     </row>
-    <row r="333" spans="1:12">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B333">
         <v>1983</v>
       </c>
@@ -18851,7 +19746,7 @@
         <v>0.55220000000000002</v>
       </c>
     </row>
-    <row r="334" spans="1:12">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B334">
         <v>1984</v>
       </c>
@@ -18886,7 +19781,7 @@
         <v>0.60919999999999996</v>
       </c>
     </row>
-    <row r="335" spans="1:12">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B335">
         <v>1985</v>
       </c>
@@ -18921,7 +19816,7 @@
         <v>0.59670000000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:12">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B336">
         <v>1986</v>
       </c>
@@ -18956,7 +19851,7 @@
         <v>0.36520000000000002</v>
       </c>
     </row>
-    <row r="337" spans="2:12">
+    <row r="337" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B337">
         <v>1987</v>
       </c>
@@ -18991,7 +19886,7 @@
         <v>0.42770000000000002</v>
       </c>
     </row>
-    <row r="338" spans="2:12">
+    <row r="338" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B338">
         <v>1988</v>
       </c>
@@ -19026,7 +19921,7 @@
         <v>0.43840000000000001</v>
       </c>
     </row>
-    <row r="339" spans="2:12">
+    <row r="339" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B339">
         <v>1989</v>
       </c>
@@ -19061,7 +19956,7 @@
         <v>0.34960000000000002</v>
       </c>
     </row>
-    <row r="340" spans="2:12">
+    <row r="340" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B340">
         <v>1990</v>
       </c>
@@ -19096,7 +19991,7 @@
         <v>0.52880000000000005</v>
       </c>
     </row>
-    <row r="341" spans="2:12">
+    <row r="341" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B341">
         <v>1991</v>
       </c>
@@ -19131,7 +20026,7 @@
         <v>0.44259999999999999</v>
       </c>
     </row>
-    <row r="342" spans="2:12">
+    <row r="342" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B342">
         <v>1992</v>
       </c>
@@ -19166,7 +20061,7 @@
         <v>0.48259999999999997</v>
       </c>
     </row>
-    <row r="343" spans="2:12">
+    <row r="343" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B343">
         <v>1993</v>
       </c>
@@ -19201,7 +20096,7 @@
         <v>0.4945</v>
       </c>
     </row>
-    <row r="344" spans="2:12">
+    <row r="344" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B344">
         <v>1994</v>
       </c>
@@ -19236,7 +20131,7 @@
         <v>0.50849999999999995</v>
       </c>
     </row>
-    <row r="345" spans="2:12">
+    <row r="345" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B345">
         <v>1995</v>
       </c>
@@ -19271,7 +20166,7 @@
         <v>0.44030000000000002</v>
       </c>
     </row>
-    <row r="346" spans="2:12">
+    <row r="346" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B346">
         <v>1996</v>
       </c>
@@ -19306,7 +20201,7 @@
         <v>0.49480000000000002</v>
       </c>
     </row>
-    <row r="347" spans="2:12">
+    <row r="347" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B347">
         <v>1997</v>
       </c>
@@ -19341,7 +20236,7 @@
         <v>0.52749999999999997</v>
       </c>
     </row>
-    <row r="348" spans="2:12">
+    <row r="348" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B348">
         <v>1998</v>
       </c>
@@ -19376,7 +20271,7 @@
         <v>0.55110000000000003</v>
       </c>
     </row>
-    <row r="349" spans="2:12">
+    <row r="349" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B349">
         <v>1999</v>
       </c>
@@ -19411,7 +20306,7 @@
         <v>0.55620000000000003</v>
       </c>
     </row>
-    <row r="350" spans="2:12">
+    <row r="350" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B350">
         <v>2000</v>
       </c>
@@ -19446,7 +20341,7 @@
         <v>0.5665</v>
       </c>
     </row>
-    <row r="351" spans="2:12">
+    <row r="351" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B351">
         <v>2001</v>
       </c>
@@ -19481,7 +20376,7 @@
         <v>0.50480000000000003</v>
       </c>
     </row>
-    <row r="352" spans="2:12">
+    <row r="352" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B352">
         <v>2002</v>
       </c>
@@ -19516,7 +20411,7 @@
         <v>0.65269999999999995</v>
       </c>
     </row>
-    <row r="353" spans="2:12">
+    <row r="353" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B353">
         <v>2003</v>
       </c>
@@ -19551,7 +20446,7 @@
         <v>0.38929999999999998</v>
       </c>
     </row>
-    <row r="354" spans="2:12">
+    <row r="354" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B354">
         <v>2004</v>
       </c>
@@ -19586,7 +20481,7 @@
         <v>0.56630000000000003</v>
       </c>
     </row>
-    <row r="355" spans="2:12">
+    <row r="355" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B355">
         <v>2005</v>
       </c>
@@ -19621,7 +20516,7 @@
         <v>0.44309999999999999</v>
       </c>
     </row>
-    <row r="356" spans="2:12">
+    <row r="356" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B356">
         <v>2006</v>
       </c>
@@ -19656,7 +20551,7 @@
         <v>0.44309999999999999</v>
       </c>
     </row>
-    <row r="357" spans="2:12">
+    <row r="357" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B357">
         <v>2007</v>
       </c>
@@ -19691,7 +20586,7 @@
         <v>0.20810000000000001</v>
       </c>
     </row>
-    <row r="358" spans="2:12">
+    <row r="358" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B358">
         <v>2008</v>
       </c>
@@ -19726,7 +20621,7 @@
         <v>0.40360000000000001</v>
       </c>
     </row>
-    <row r="359" spans="2:12">
+    <row r="359" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B359">
         <v>2009</v>
       </c>
@@ -19761,7 +20656,7 @@
         <v>0.27410000000000001</v>
       </c>
     </row>
-    <row r="360" spans="2:12">
+    <row r="360" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B360">
         <v>2010</v>
       </c>
@@ -19796,7 +20691,7 @@
         <v>0.25480000000000003</v>
       </c>
     </row>
-    <row r="361" spans="2:12">
+    <row r="361" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B361">
         <v>2011</v>
       </c>
@@ -19831,7 +20726,7 @@
         <v>0.3881</v>
       </c>
     </row>
-    <row r="362" spans="2:12">
+    <row r="362" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B362">
         <v>2012</v>
       </c>
@@ -19866,7 +20761,7 @@
         <v>0.40339999999999998</v>
       </c>
     </row>
-    <row r="363" spans="2:12">
+    <row r="363" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B363">
         <v>2013</v>
       </c>
@@ -19901,7 +20796,7 @@
         <v>0.50649999999999995</v>
       </c>
     </row>
-    <row r="364" spans="2:12">
+    <row r="364" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B364">
         <v>2014</v>
       </c>
@@ -19936,7 +20831,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="365" spans="2:12">
+    <row r="365" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B365">
         <v>2015</v>
       </c>
@@ -19971,7 +20866,7 @@
         <v>0.46660000000000001</v>
       </c>
     </row>
-    <row r="366" spans="2:12">
+    <row r="366" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B366">
         <v>2016</v>
       </c>
@@ -20006,7 +20901,7 @@
         <v>0.4965</v>
       </c>
     </row>
-    <row r="367" spans="2:12">
+    <row r="367" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B367">
         <v>2017</v>
       </c>
@@ -20041,7 +20936,7 @@
         <v>0.61570000000000003</v>
       </c>
     </row>
-    <row r="368" spans="2:12">
+    <row r="368" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
         <v>228</v>
       </c>
@@ -20058,7 +20953,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="369" spans="1:12">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
         <v>231</v>
       </c>
@@ -20087,7 +20982,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="370" spans="1:12">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B370">
         <v>1995</v>
       </c>
@@ -20122,7 +21017,7 @@
         <v>0.57509999999999994</v>
       </c>
     </row>
-    <row r="371" spans="1:12">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B371">
         <v>1998</v>
       </c>
@@ -20157,7 +21052,7 @@
         <v>0.7026</v>
       </c>
     </row>
-    <row r="372" spans="1:12">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B372">
         <v>2001</v>
       </c>
@@ -20192,7 +21087,7 @@
         <v>0.64570000000000005</v>
       </c>
     </row>
-    <row r="373" spans="1:12">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B373">
         <v>2004</v>
       </c>
@@ -20227,7 +21122,7 @@
         <v>0.6845</v>
       </c>
     </row>
-    <row r="374" spans="1:12">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B374">
         <v>2007</v>
       </c>
@@ -20262,7 +21157,7 @@
         <v>0.5595</v>
       </c>
     </row>
-    <row r="375" spans="1:12">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B375">
         <v>2010</v>
       </c>
@@ -20297,7 +21192,7 @@
         <v>0.54920000000000002</v>
       </c>
     </row>
-    <row r="376" spans="1:12">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B376">
         <v>2013</v>
       </c>
@@ -20332,7 +21227,7 @@
         <v>0.59670000000000001</v>
       </c>
     </row>
-    <row r="377" spans="1:12">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B377">
         <v>2015</v>
       </c>
@@ -20367,7 +21262,7 @@
         <v>0.68589999999999995</v>
       </c>
     </row>
-    <row r="378" spans="1:12">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B378">
         <v>2016</v>
       </c>
@@ -20402,7 +21297,7 @@
         <v>0.72509999999999997</v>
       </c>
     </row>
-    <row r="379" spans="1:12">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B379">
         <v>2017</v>
       </c>
@@ -20437,7 +21332,7 @@
         <v>0.64120781500000001</v>
       </c>
     </row>
-    <row r="380" spans="1:12">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>149</v>
       </c>
@@ -20451,7 +21346,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="381" spans="1:12">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>15</v>
       </c>
@@ -20459,12 +21354,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="382" spans="1:12">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:12">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>15</v>
       </c>
@@ -20481,7 +21376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="1:12">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B384">
         <v>97.5</v>
       </c>
@@ -20495,7 +21390,7 @@
         <v>0.21970000000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:40">
+    <row r="385" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>112.5</v>
       </c>
@@ -20509,7 +21404,7 @@
         <v>0.21970000000000001</v>
       </c>
     </row>
-    <row r="386" spans="1:40">
+    <row r="386" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>127.5</v>
       </c>
@@ -20523,7 +21418,7 @@
         <v>0.21970000000000001</v>
       </c>
     </row>
-    <row r="387" spans="1:40">
+    <row r="387" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>15</v>
       </c>
@@ -20540,7 +21435,7 @@
         <v>0.21970000000000001</v>
       </c>
     </row>
-    <row r="388" spans="1:40">
+    <row r="388" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>15</v>
       </c>
@@ -20557,7 +21452,7 @@
         <v>0.21970000000000001</v>
       </c>
     </row>
-    <row r="389" spans="1:40">
+    <row r="389" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>15</v>
       </c>
@@ -20574,7 +21469,7 @@
         <v>0.21970000000000001</v>
       </c>
     </row>
-    <row r="390" spans="1:40">
+    <row r="390" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>15</v>
       </c>
@@ -20618,12 +21513,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="391" spans="1:40">
+    <row r="391" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:40">
+    <row r="392" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>15</v>
       </c>
@@ -20661,7 +21556,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="393" spans="1:40">
+    <row r="393" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>15</v>
       </c>
@@ -20693,7 +21588,7 @@
         <v>-1990</v>
       </c>
     </row>
-    <row r="394" spans="1:40">
+    <row r="394" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>0.2</v>
       </c>
@@ -20704,7 +21599,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="395" spans="1:40">
+    <row r="395" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>0</v>
       </c>
@@ -20715,7 +21610,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="396" spans="1:40">
+    <row r="396" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>0</v>
       </c>
@@ -20726,7 +21621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:40">
+    <row r="397" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>15</v>
       </c>
@@ -20761,12 +21656,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="398" spans="1:40">
+    <row r="398" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:40">
+    <row r="399" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>0.12</v>
       </c>
@@ -20888,7 +21783,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="400" spans="1:40">
+    <row r="400" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>149</v>
       </c>
@@ -20896,9 +21791,1847 @@
         <v>267</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>9999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BD03B7-5B6F-CE44-9B81-2C0D038A9DCC}">
+  <dimension ref="B1:O44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:O44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1976</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3664.8093432853998</v>
+      </c>
+      <c r="F2">
+        <v>0.35767364590043099</v>
+      </c>
+      <c r="G2">
+        <v>1142.99292847471</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1977</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5267.8255323208105</v>
+      </c>
+      <c r="F3">
+        <v>0.74226561441542604</v>
+      </c>
+      <c r="G3">
+        <v>2893.0065609430399</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1978</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>9059.8150741416102</v>
+      </c>
+      <c r="F4">
+        <v>0.231659058696112</v>
+      </c>
+      <c r="G4">
+        <v>1835.4652192359899</v>
+      </c>
+      <c r="I4">
+        <v>1978</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f>E4</f>
+        <v>9059.8150741416102</v>
+      </c>
+      <c r="N4">
+        <f>F4</f>
+        <v>0.231659058696112</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1979</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>9302.9796550616993</v>
+      </c>
+      <c r="F5">
+        <v>0.26342760349613298</v>
+      </c>
+      <c r="G5">
+        <v>2149.0186085731102</v>
+      </c>
+      <c r="I5">
+        <v>1979</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M44" si="0">E5</f>
+        <v>9302.9796550616993</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N44" si="1">F5</f>
+        <v>0.26342760349613298</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1980</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>9127.9574002047193</v>
+      </c>
+      <c r="F6">
+        <v>0.18881147676937199</v>
+      </c>
+      <c r="G6">
+        <v>1518.7928081442999</v>
+      </c>
+      <c r="I6">
+        <v>1980</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>9127.9574002047193</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>0.18881147676937199</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1981</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>8474.5283717520997</v>
+      </c>
+      <c r="F7">
+        <v>0.19577090354745</v>
+      </c>
+      <c r="G7">
+        <v>1459.0023205072</v>
+      </c>
+      <c r="I7">
+        <v>1981</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>8474.5283717520997</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>0.19577090354745</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1982</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>19499.9601758928</v>
+      </c>
+      <c r="F8">
+        <v>0.203231533460205</v>
+      </c>
+      <c r="G8">
+        <v>3465.53586847209</v>
+      </c>
+      <c r="I8">
+        <v>1982</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>19499.9601758928</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>0.203231533460205</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1983</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>8594.4792652646793</v>
+      </c>
+      <c r="F9">
+        <v>0.15962356809731201</v>
+      </c>
+      <c r="G9">
+        <v>1222.072727985</v>
+      </c>
+      <c r="I9">
+        <v>1983</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>8594.4792652646793</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>0.15962356809731201</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1984</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>4419.8772174650803</v>
+      </c>
+      <c r="F10">
+        <v>0.16859943305448</v>
+      </c>
+      <c r="G10">
+        <v>656.19856753604699</v>
+      </c>
+      <c r="I10">
+        <v>1984</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>4419.8772174650803</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>0.16859943305448</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1985</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>3517.60237396501</v>
+      </c>
+      <c r="F11">
+        <v>0.189548647089404</v>
+      </c>
+      <c r="G11">
+        <v>587.09818484498703</v>
+      </c>
+      <c r="I11">
+        <v>1985</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>3517.60237396501</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0.189548647089404</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1986</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1383.81344638773</v>
+      </c>
+      <c r="F12">
+        <v>0.252435921816968</v>
+      </c>
+      <c r="G12">
+        <v>303.19582388460299</v>
+      </c>
+      <c r="I12">
+        <v>1986</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>1383.81344638773</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>0.252435921816968</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>1987</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2748.26009524356</v>
+      </c>
+      <c r="F13">
+        <v>0.23122453269266799</v>
+      </c>
+      <c r="G13">
+        <v>555.97443953900995</v>
+      </c>
+      <c r="I13">
+        <v>1987</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>2748.26009524356</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>0.23122453269266799</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1988</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>3166.2113524639699</v>
+      </c>
+      <c r="F14">
+        <v>0.21623131026621201</v>
+      </c>
+      <c r="G14">
+        <v>602.13307711187497</v>
+      </c>
+      <c r="I14">
+        <v>1988</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>3166.2113524639699</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>0.21623131026621201</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>1989</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>6313.9002863474698</v>
+      </c>
+      <c r="F15">
+        <v>0.19956397554035701</v>
+      </c>
+      <c r="G15">
+        <v>1110.4598904080999</v>
+      </c>
+      <c r="I15">
+        <v>1989</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>6313.9002863474698</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>0.19956397554035701</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1990</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>6851.1049589388804</v>
+      </c>
+      <c r="F16">
+        <v>0.202042064455148</v>
+      </c>
+      <c r="G16">
+        <v>1218.39760552444</v>
+      </c>
+      <c r="I16">
+        <v>1990</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>6851.1049589388804</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>0.202042064455148</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1991</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>6966.4357037724703</v>
+      </c>
+      <c r="F17">
+        <v>0.17303735732375</v>
+      </c>
+      <c r="G17">
+        <v>1066.7128976617901</v>
+      </c>
+      <c r="I17">
+        <v>1991</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>6966.4357037724703</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>0.17303735732375</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1992</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>7077.2697443884099</v>
+      </c>
+      <c r="F18">
+        <v>0.16157467407949799</v>
+      </c>
+      <c r="G18">
+        <v>1011.85731531402</v>
+      </c>
+      <c r="I18">
+        <v>1992</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>7077.2697443884099</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>0.16157467407949799</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1993</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>9472.4732557479292</v>
+      </c>
+      <c r="F19">
+        <v>0.158276057080387</v>
+      </c>
+      <c r="G19">
+        <v>1328.25638068905</v>
+      </c>
+      <c r="I19">
+        <v>1993</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>9472.4732557479292</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>0.158276057080387</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1994</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>6811.6937776239301</v>
+      </c>
+      <c r="F20">
+        <v>0.17027222508773199</v>
+      </c>
+      <c r="G20">
+        <v>1022.92463284193</v>
+      </c>
+      <c r="I20">
+        <v>1994</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>6811.6937776239301</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>0.17027222508773199</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1995</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>5635.9405721100802</v>
+      </c>
+      <c r="F21">
+        <v>0.144793963816781</v>
+      </c>
+      <c r="G21">
+        <v>724.85517307349005</v>
+      </c>
+      <c r="I21">
+        <v>1995</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>5635.9405721100802</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>0.144793963816781</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1996</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>8715.3222723873896</v>
+      </c>
+      <c r="F22">
+        <v>0.168387689476835</v>
+      </c>
+      <c r="G22">
+        <v>1298.6712247840701</v>
+      </c>
+      <c r="I22">
+        <v>1996</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>8715.3222723873896</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>0.168387689476835</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>1997</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>8905.7649938015002</v>
+      </c>
+      <c r="F23">
+        <v>0.164383520462525</v>
+      </c>
+      <c r="G23">
+        <v>1301.42836555798</v>
+      </c>
+      <c r="I23">
+        <v>1997</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>8905.7649938015002</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>0.164383520462525</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>1998</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>6711.8153720146702</v>
+      </c>
+      <c r="F24">
+        <v>0.16628333603609699</v>
+      </c>
+      <c r="G24">
+        <v>991.86950034990605</v>
+      </c>
+      <c r="I24">
+        <v>1998</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>6711.8153720146702</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>0.16628333603609699</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>1999</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2120.5493461711399</v>
+      </c>
+      <c r="F25">
+        <v>0.202338044938666</v>
+      </c>
+      <c r="G25">
+        <v>375.02380948414299</v>
+      </c>
+      <c r="I25">
+        <v>1999</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>2120.5493461711399</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>0.202338044938666</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>2000</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2043.4664013567201</v>
+      </c>
+      <c r="F26">
+        <v>0.20986763570735101</v>
+      </c>
+      <c r="G26">
+        <v>378.61466755308402</v>
+      </c>
+      <c r="I26">
+        <v>2000</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>2043.4664013567201</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>0.20986763570735101</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>2001</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>3104.2878245669699</v>
+      </c>
+      <c r="F27">
+        <v>0.24699671572127299</v>
+      </c>
+      <c r="G27">
+        <v>667.35426567278705</v>
+      </c>
+      <c r="I27">
+        <v>2001</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>3104.2878245669699</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>0.24699671572127299</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>2002</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1978.4908554436399</v>
+      </c>
+      <c r="F28">
+        <v>0.25311072228380599</v>
+      </c>
+      <c r="G28">
+        <v>435.26497642391399</v>
+      </c>
+      <c r="I28">
+        <v>2002</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>1978.4908554436399</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>0.25311072228380599</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>2003</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1701.1751292446299</v>
+      </c>
+      <c r="F29">
+        <v>0.25248692213953899</v>
+      </c>
+      <c r="G29">
+        <v>372.49197784737902</v>
+      </c>
+      <c r="I29">
+        <v>2003</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>1701.1751292446299</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>0.25248692213953899</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>2004</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1481.4495176074699</v>
+      </c>
+      <c r="F30">
+        <v>0.235444271006858</v>
+      </c>
+      <c r="G30">
+        <v>304.45009209240101</v>
+      </c>
+      <c r="I30">
+        <v>2004</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>1481.4495176074699</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>0.235444271006858</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>2005</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1936.57197001964</v>
+      </c>
+      <c r="F31">
+        <v>0.296407573373485</v>
+      </c>
+      <c r="G31">
+        <v>494.90197848866001</v>
+      </c>
+      <c r="I31">
+        <v>2005</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>1936.57197001964</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>0.296407573373485</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>2006</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>3311.3365510174699</v>
+      </c>
+      <c r="F32">
+        <v>0.181934383724494</v>
+      </c>
+      <c r="G32">
+        <v>531.97534610048001</v>
+      </c>
+      <c r="I32">
+        <v>2006</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>3311.3365510174699</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>0.181934383724494</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>2007</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>5047.0395416873998</v>
+      </c>
+      <c r="F33">
+        <v>0.16050464463259201</v>
+      </c>
+      <c r="G33">
+        <v>717.97787012337403</v>
+      </c>
+      <c r="I33">
+        <v>2007</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>5047.0395416873998</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="1"/>
+        <v>0.16050464463259201</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>2008</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>4212.9250968321103</v>
+      </c>
+      <c r="F34">
+        <v>0.17924168047475</v>
+      </c>
+      <c r="G34">
+        <v>667.70263269337397</v>
+      </c>
+      <c r="I34">
+        <v>2008</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>4212.9250968321103</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="1"/>
+        <v>0.17924168047475</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>2009</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>5797.3128959374899</v>
+      </c>
+      <c r="F35">
+        <v>0.144850505705098</v>
+      </c>
+      <c r="G35">
+        <v>747.95886087360304</v>
+      </c>
+      <c r="I35">
+        <v>2009</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>5797.3128959374899</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="1"/>
+        <v>0.144850505705098</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>2010</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>7352.89055867158</v>
+      </c>
+      <c r="F36">
+        <v>0.14336189447696099</v>
+      </c>
+      <c r="G36">
+        <v>943.265795242575</v>
+      </c>
+      <c r="I36">
+        <v>2010</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>7352.89055867158</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="1"/>
+        <v>0.14336189447696099</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>2011</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>6851.7728766885903</v>
+      </c>
+      <c r="F37">
+        <v>0.17126102445588501</v>
+      </c>
+      <c r="G37">
+        <v>1044.7275658426399</v>
+      </c>
+      <c r="I37">
+        <v>2011</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>6851.7728766885903</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="1"/>
+        <v>0.17126102445588501</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>2012</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>5342.4463816616299</v>
+      </c>
+      <c r="F38">
+        <v>0.14942026597282601</v>
+      </c>
+      <c r="G38">
+        <v>710.83122112336503</v>
+      </c>
+      <c r="I38">
+        <v>2012</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>5342.4463816616299</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="1"/>
+        <v>0.14942026597282601</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>2013</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2359.8268367262599</v>
+      </c>
+      <c r="F39">
+        <v>0.17358532025832599</v>
+      </c>
+      <c r="G39">
+        <v>360.99958791278499</v>
+      </c>
+      <c r="I39">
+        <v>2013</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>2359.8268367262599</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="1"/>
+        <v>0.17358532025832599</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>2014</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>4563.7489047336003</v>
+      </c>
+      <c r="F40">
+        <v>0.19773136154277801</v>
+      </c>
+      <c r="G40">
+        <v>799.27646391432302</v>
+      </c>
+      <c r="I40">
+        <v>2014</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>4563.7489047336003</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="1"/>
+        <v>0.19773136154277801</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>2015</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>2712.3926192413401</v>
+      </c>
+      <c r="F41">
+        <v>0.22589375710573101</v>
+      </c>
+      <c r="G41">
+        <v>544.62509055943997</v>
+      </c>
+      <c r="I41">
+        <v>2015</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="0"/>
+        <v>2712.3926192413401</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="1"/>
+        <v>0.22589375710573101</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>2016</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>3060.7309703224801</v>
+      </c>
+      <c r="F42">
+        <v>0.23956382306694099</v>
+      </c>
+      <c r="G42">
+        <v>641.23567749198003</v>
+      </c>
+      <c r="I42">
+        <v>2016</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>3060.7309703224801</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="1"/>
+        <v>0.23956382306694099</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>2017</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1236.3524338324801</v>
+      </c>
+      <c r="F43">
+        <v>0.31096834693214098</v>
+      </c>
+      <c r="G43">
+        <v>325.72780199552199</v>
+      </c>
+      <c r="I43">
+        <v>2017</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="0"/>
+        <v>1236.3524338324801</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="1"/>
+        <v>0.31096834693214098</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>2018</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>2021.8852336861901</v>
+      </c>
+      <c r="F44">
+        <v>0.30058236120618997</v>
+      </c>
+      <c r="G44">
+        <v>519.15419556660299</v>
+      </c>
+      <c r="I44">
+        <v>2018</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="0"/>
+        <v>2021.8852336861901</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="1"/>
+        <v>0.30058236120618997</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
